--- a/MainTop/27.08.2025 бирки/print_sorted.xlsx
+++ b/MainTop/27.08.2025 бирки/print_sorted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.08.2025 бирки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\27.08.2025 бирки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D1D22B-EBC0-44EB-BFF3-03934C2450D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB052F19-04C6-43CB-803E-0ADC664E5D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
